--- a/biology/Botanique/Trachycarpus_wagnerianus/Trachycarpus_wagnerianus.xlsx
+++ b/biology/Botanique/Trachycarpus_wagnerianus/Trachycarpus_wagnerianus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Palmier miniature de Chusan
 Le palmier miniature de Chusan (Trachycarpus wagnerianus) est une espèce de plantes de la famille des Arecaceae (les palmiers) probablement originaire du Japon mais toutefois son origine reste incertaine.
 Il n'existe pas dans la nature et ce n'est donc qu'une espèce cultivée.
-Il est très apparenté à Trachycarpus fortunei par son aspect et ses conditions de culture, mais son port est plus compact que celui-ci et ainsi ses feuilles petites et rigides résistent mieux dans leurs tenues aux intempéries[2].
+Il est très apparenté à Trachycarpus fortunei par son aspect et ses conditions de culture, mais son port est plus compact que celui-ci et ainsi ses feuilles petites et rigides résistent mieux dans leurs tenues aux intempéries.
 </t>
         </is>
       </c>
@@ -514,7 +526,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chamaerops fortunei Hook. (basionyme)
 Trachycarpus caespitosus Becc.
@@ -546,7 +560,9 @@
           <t>Caractéristiques distinctives d'identification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Port plus compact que Trachycarpus fortunei.
 Feuilles palmées, parfois raides à très raides vert sombre.
@@ -580,7 +596,9 @@
           <t>Conditions de culture.</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce palmier se plaît particulièrement dans un climat humide et frais, peut s'adapter parfaitement à des températures jusqu'à -18 °C, il supporte mal la sècheresse et les périodes de canicule.
 Il est particulièrement adapté aux petits jardins de ville par son encombrement moindre en largeur.
